--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM+Dem.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.5036918834308292</v>
+        <v>-0.1978849691700991</v>
       </c>
       <c r="C2">
-        <v>0.6128763941201892</v>
+        <v>0.2000054630226884</v>
       </c>
       <c r="D2">
-        <v>0.5043592483323988</v>
+        <v>0.2521951595434684</v>
       </c>
       <c r="E2">
-        <v>0.2655845063722562</v>
+        <v>0.1131176202211012</v>
       </c>
       <c r="F2">
-        <v>0.1319808689639465</v>
+        <v>0.1217790627464755</v>
       </c>
       <c r="G2">
-        <v>-0.2318634349480802</v>
+        <v>-0.06662386810239454</v>
       </c>
       <c r="H2">
-        <v>-0.3937810598381093</v>
+        <v>-0.1325675939049237</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-2.24748327863273</v>
+        <v>-0.03424491082068669</v>
       </c>
       <c r="C3">
-        <v>1.957839109073209</v>
+        <v>0.02821051001394602</v>
       </c>
       <c r="D3">
-        <v>2.336103012553453</v>
+        <v>0.03941199989196649</v>
       </c>
       <c r="E3">
-        <v>0.05605921178168408</v>
+        <v>0.0336435084365188</v>
       </c>
       <c r="F3">
-        <v>0.4930053689831728</v>
+        <v>0.02513159879736043</v>
       </c>
       <c r="G3">
-        <v>-1.686999795589773</v>
+        <v>-0.00933020437277801</v>
       </c>
       <c r="H3">
-        <v>-0.7810108317227799</v>
+        <v>-0.01290410497510651</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1.259953006750664</v>
+        <v>-0.4903420729803946</v>
       </c>
       <c r="C4">
-        <v>1.704445246080955</v>
+        <v>0.48648315939492</v>
       </c>
       <c r="D4">
-        <v>0.5659875785256263</v>
+        <v>0.3685518167271117</v>
       </c>
       <c r="E4">
-        <v>0.888359323358781</v>
+        <v>0.4703353848246626</v>
       </c>
       <c r="F4">
-        <v>0.2165145618565333</v>
+        <v>0.2950160531707482</v>
       </c>
       <c r="G4">
-        <v>-0.9377219548272456</v>
+        <v>-0.04516560753014205</v>
       </c>
       <c r="H4">
-        <v>-0.3901597903138153</v>
+        <v>-0.1765532602812803</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.2289714545810087</v>
+        <v>-1.034996480972789</v>
       </c>
       <c r="C5">
-        <v>0.3071353935517258</v>
+        <v>0.925409128161654</v>
       </c>
       <c r="D5">
-        <v>0.1537322717550943</v>
+        <v>0.8878759972993943</v>
       </c>
       <c r="E5">
-        <v>0.1674222411724385</v>
+        <v>0.6722189527008162</v>
       </c>
       <c r="F5">
-        <v>0.08687683885183108</v>
+        <v>0.4976420588587674</v>
       </c>
       <c r="G5">
-        <v>-0.03707394022347184</v>
+        <v>-0.2420618144301163</v>
       </c>
       <c r="H5">
-        <v>-0.130818488553883</v>
+        <v>-0.3819444343508631</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.03853725214524724</v>
+        <v>-0.9179966720129993</v>
       </c>
       <c r="C6">
-        <v>0.03901073094666239</v>
+        <v>0.8165946348088592</v>
       </c>
       <c r="D6">
-        <v>0.03539372331470313</v>
+        <v>0.7993098250096154</v>
       </c>
       <c r="E6">
-        <v>0.02945446135663952</v>
+        <v>0.6815980439032808</v>
       </c>
       <c r="F6">
-        <v>0.01958168468300809</v>
+        <v>0.5686299074423898</v>
       </c>
       <c r="G6">
-        <v>-0.002188564232953215</v>
+        <v>-0.0222968539162755</v>
       </c>
       <c r="H6">
-        <v>-0.02336871907675217</v>
+        <v>-0.5179076210794245</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.7346749924532044</v>
+        <v>-0.2760977166598346</v>
       </c>
       <c r="C7">
-        <v>0.7158545903997486</v>
+        <v>0.2956377008745945</v>
       </c>
       <c r="D7">
-        <v>0.8509560996722364</v>
+        <v>0.2283897499007791</v>
       </c>
       <c r="E7">
-        <v>0.2942441859418098</v>
+        <v>0.168237068823595</v>
       </c>
       <c r="F7">
-        <v>0.2383056159385718</v>
+        <v>0.1503562211130735</v>
       </c>
       <c r="G7">
-        <v>-0.4182265936317082</v>
+        <v>-0.03457098966067394</v>
       </c>
       <c r="H7">
-        <v>-0.3064238857788014</v>
+        <v>-0.1286669166154081</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.5398076291902092</v>
+        <v>-1.098620060254536</v>
       </c>
       <c r="C8">
-        <v>0.5964620929487804</v>
+        <v>0.9676328023398163</v>
       </c>
       <c r="D8">
-        <v>0.5755984107236838</v>
+        <v>0.8564337098481881</v>
       </c>
       <c r="E8">
-        <v>0.45533734056152</v>
+        <v>0.6398972683625684</v>
       </c>
       <c r="F8">
-        <v>0.3396718186895318</v>
+        <v>0.6199480560105654</v>
       </c>
       <c r="G8">
-        <v>-0.4837543888183812</v>
+        <v>-0.2269282064409988</v>
       </c>
       <c r="H8">
-        <v>-0.2832094600597861</v>
+        <v>-0.5613442645034789</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-1.08694703870301</v>
+        <v>-0.003932198385558189</v>
       </c>
       <c r="C9">
-        <v>1.29802346481686</v>
+        <v>0.004523768695770214</v>
       </c>
       <c r="D9">
-        <v>1.160362537183813</v>
+        <v>0.004356363833243553</v>
       </c>
       <c r="E9">
-        <v>0.4448838635767473</v>
+        <v>0.002207912669892857</v>
       </c>
       <c r="F9">
-        <v>0.5673379844771765</v>
+        <v>0.002389756818416845</v>
       </c>
       <c r="G9">
-        <v>-1.989958877713744</v>
+        <v>-0.001367335476345113</v>
       </c>
       <c r="H9">
-        <v>-0.1214956149966405</v>
+        <v>-0.001451567514455392</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.5680988187343194</v>
+        <v>-1.157700618446989</v>
       </c>
       <c r="C10">
-        <v>0.4879549315302806</v>
+        <v>0.9981111972661998</v>
       </c>
       <c r="D10">
-        <v>0.5323222301378728</v>
+        <v>0.8586327955196948</v>
       </c>
       <c r="E10">
-        <v>0.3498726231988137</v>
+        <v>0.4971785605539782</v>
       </c>
       <c r="F10">
-        <v>0.3612349703566614</v>
+        <v>0.6513818355704803</v>
       </c>
       <c r="G10">
-        <v>-0.2134055553904624</v>
+        <v>-0.4174856956174084</v>
       </c>
       <c r="H10">
-        <v>-0.1988689709703753</v>
+        <v>-0.3273878843877122</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-1.152031957943291</v>
+        <v>-0.3641985504523465</v>
       </c>
       <c r="C11">
-        <v>1.289076131955719</v>
+        <v>0.2799655954188161</v>
       </c>
       <c r="D11">
-        <v>1.080080295466351</v>
+        <v>0.317152863187287</v>
       </c>
       <c r="E11">
-        <v>0.540887251960887</v>
+        <v>0.1881130261528756</v>
       </c>
       <c r="F11">
-        <v>0.9827595560137903</v>
+        <v>0.1674281162458642</v>
       </c>
       <c r="G11">
-        <v>-1.554714732864406</v>
+        <v>-0.1123741001123539</v>
       </c>
       <c r="H11">
-        <v>-0.2003037391813816</v>
+        <v>-0.02865755497499893</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.4652194363344654</v>
+        <v>-0.8908013783250013</v>
       </c>
       <c r="C12">
-        <v>0.6256284741779824</v>
+        <v>0.8650954621926213</v>
       </c>
       <c r="D12">
-        <v>0.4165753063411651</v>
+        <v>0.7896639489892353</v>
       </c>
       <c r="E12">
-        <v>0.2537966380435502</v>
+        <v>0.4864250998468673</v>
       </c>
       <c r="F12">
-        <v>0.2736783482548569</v>
+        <v>0.4646648643987272</v>
       </c>
       <c r="G12">
-        <v>-0.2324427764634431</v>
+        <v>-0.1233229497760771</v>
       </c>
       <c r="H12">
-        <v>-0.1331723509530873</v>
+        <v>-0.3846359224304033</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.3536503683198376</v>
+        <v>-1.240132203229116</v>
       </c>
       <c r="C13">
-        <v>0.5240726978288629</v>
+        <v>0.9822793406925865</v>
       </c>
       <c r="D13">
-        <v>0.3044823576052442</v>
+        <v>1.13098942832243</v>
       </c>
       <c r="E13">
-        <v>0.4074114714122734</v>
+        <v>0.5989788495836554</v>
       </c>
       <c r="F13">
-        <v>0.1380418380627582</v>
+        <v>0.6030292199973279</v>
       </c>
       <c r="G13">
-        <v>-0.2397859416337253</v>
+        <v>-0.4877196262754416</v>
       </c>
       <c r="H13">
-        <v>-0.1960356018017179</v>
+        <v>-0.358500817025579</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.3822690566034431</v>
+        <v>-1.077768403297299</v>
       </c>
       <c r="C14">
-        <v>0.5007355939468098</v>
+        <v>1.239470328667594</v>
       </c>
       <c r="D14">
-        <v>0.4166024293274184</v>
+        <v>0.4762599281006317</v>
       </c>
       <c r="E14">
-        <v>0.2395105145812063</v>
+        <v>0.8853096802654367</v>
       </c>
       <c r="F14">
-        <v>0.2385313668117326</v>
+        <v>0.2123098963569133</v>
       </c>
       <c r="G14">
-        <v>-0.07911417038596508</v>
+        <v>-0.2790164563333582</v>
       </c>
       <c r="H14">
-        <v>-0.1272270964600847</v>
+        <v>-0.3785423213681641</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.1997718713410206</v>
+        <v>-0.6005340588915828</v>
       </c>
       <c r="C15">
-        <v>0.2316538251083704</v>
+        <v>0.6482164292063757</v>
       </c>
       <c r="D15">
-        <v>0.2373984711403974</v>
+        <v>0.4256574638885407</v>
       </c>
       <c r="E15">
-        <v>0.1595552021792936</v>
+        <v>0.4184957532196355</v>
       </c>
       <c r="F15">
-        <v>0.1287771222775702</v>
+        <v>0.215111911256597</v>
       </c>
       <c r="G15">
-        <v>-0.08834086430519113</v>
+        <v>-0.1748629003499509</v>
       </c>
       <c r="H15">
-        <v>-0.06007900468899834</v>
+        <v>-0.2778912150736574</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-1.166782998021856</v>
+        <v>-0.409927181868416</v>
       </c>
       <c r="C16">
-        <v>1.475284663388815</v>
+        <v>0.4161662912010962</v>
       </c>
       <c r="D16">
-        <v>0.6583813426274092</v>
+        <v>0.5346976363809839</v>
       </c>
       <c r="E16">
-        <v>0.7014398327068525</v>
+        <v>0.2247804272248457</v>
       </c>
       <c r="F16">
-        <v>0.436804647708277</v>
+        <v>0.2328071579005108</v>
       </c>
       <c r="G16">
-        <v>-0.7688417139445745</v>
+        <v>-0.01788807865895965</v>
       </c>
       <c r="H16">
-        <v>-0.6543286417376022</v>
+        <v>-0.2860676217724204</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.2475288803970848</v>
+        <v>-0.9056234144758818</v>
       </c>
       <c r="C17">
-        <v>0.261625813294634</v>
+        <v>0.6348463462521433</v>
       </c>
       <c r="D17">
-        <v>0.2733374133155366</v>
+        <v>0.9361447836236428</v>
       </c>
       <c r="E17">
-        <v>0.1540641696414599</v>
+        <v>0.646858544451606</v>
       </c>
       <c r="F17">
-        <v>0.1217335297969279</v>
+        <v>0.5158678879361985</v>
       </c>
       <c r="G17">
-        <v>-0.06241419144387452</v>
+        <v>-0.01194411390390578</v>
       </c>
       <c r="H17">
-        <v>-0.07289537988992366</v>
+        <v>-0.6434875827868367</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.8045759923142399</v>
+        <v>-0.6001185830021343</v>
       </c>
       <c r="C18">
-        <v>0.9590256605743986</v>
+        <v>0.6296958404119578</v>
       </c>
       <c r="D18">
-        <v>0.5438601318659444</v>
+        <v>0.5282788233968823</v>
       </c>
       <c r="E18">
-        <v>0.7945224541852022</v>
+        <v>0.5590426891128323</v>
       </c>
       <c r="F18">
-        <v>0.1516746227808115</v>
+        <v>0.06582191187257093</v>
       </c>
       <c r="G18">
-        <v>-0.5650161642373535</v>
+        <v>-0.1617602234083119</v>
       </c>
       <c r="H18">
-        <v>-0.7146499494016842</v>
+        <v>-0.310418851429344</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.5749849434974297</v>
+        <v>-0.593531101354662</v>
       </c>
       <c r="C19">
-        <v>0.7900494082471182</v>
+        <v>0.7288880586921541</v>
       </c>
       <c r="D19">
-        <v>0.4498016491351852</v>
+        <v>0.4280651492210381</v>
       </c>
       <c r="E19">
-        <v>0.3824930920583108</v>
+        <v>0.4481513967932221</v>
       </c>
       <c r="F19">
-        <v>0.2462976628436528</v>
+        <v>0.1684698013916959</v>
       </c>
       <c r="G19">
-        <v>-0.216101601579877</v>
+        <v>-0.02778203033100351</v>
       </c>
       <c r="H19">
-        <v>-0.2515706146234831</v>
+        <v>-0.1796442373303305</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.7775526999858061</v>
+        <v>-0.04205156071632387</v>
       </c>
       <c r="C20">
-        <v>0.7135039412711057</v>
+        <v>0.04944476172049822</v>
       </c>
       <c r="D20">
-        <v>0.652396068003403</v>
+        <v>0.03091233859765093</v>
       </c>
       <c r="E20">
-        <v>0.5317465122507976</v>
+        <v>0.03072210708502101</v>
       </c>
       <c r="F20">
-        <v>0.3622478604186282</v>
+        <v>0.02206619483800066</v>
       </c>
       <c r="G20">
-        <v>-0.3723241923191469</v>
+        <v>-0.01200723040232866</v>
       </c>
       <c r="H20">
-        <v>-0.3464826119580252</v>
+        <v>-0.01976647210837153</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.5633873460708427</v>
+        <v>-0.9855741466108828</v>
       </c>
       <c r="C21">
-        <v>0.6789394135927133</v>
+        <v>0.9182639430240839</v>
       </c>
       <c r="D21">
-        <v>0.3340442580282273</v>
+        <v>1.044531543626786</v>
       </c>
       <c r="E21">
-        <v>0.4208444256581859</v>
+        <v>0.5363218807365554</v>
       </c>
       <c r="F21">
-        <v>0.2050112745625681</v>
+        <v>0.2684932500693516</v>
       </c>
       <c r="G21">
-        <v>-0.1024667016144023</v>
+        <v>-0.06530936107104349</v>
       </c>
       <c r="H21">
-        <v>-0.279948130590998</v>
+        <v>-0.684454225060823</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.159261041893735</v>
+        <v>-0.8257921479624872</v>
       </c>
       <c r="C22">
-        <v>0.2023272606057914</v>
+        <v>0.754296582821039</v>
       </c>
       <c r="D22">
-        <v>0.1760187201821188</v>
+        <v>0.7522216768457193</v>
       </c>
       <c r="E22">
-        <v>0.1600006254809386</v>
+        <v>0.7402105829483476</v>
       </c>
       <c r="F22">
-        <v>0.1091834342063706</v>
+        <v>0.3039637950545361</v>
       </c>
       <c r="G22">
-        <v>-0.07527736946798977</v>
+        <v>-0.2689814693272235</v>
       </c>
       <c r="H22">
-        <v>-0.1367032102900986</v>
+        <v>-0.6069328958096057</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.9035701648526789</v>
+        <v>-1.399531833154305</v>
       </c>
       <c r="C23">
-        <v>0.8776931116757882</v>
+        <v>1.121222800644501</v>
       </c>
       <c r="D23">
-        <v>0.7124129636378163</v>
+        <v>1.234952434750588</v>
       </c>
       <c r="E23">
-        <v>0.3892934061584958</v>
+        <v>0.2952504546439382</v>
       </c>
       <c r="F23">
-        <v>0.3396512182426924</v>
+        <v>0.7369611963128248</v>
       </c>
       <c r="G23">
-        <v>-0.2851671805397903</v>
+        <v>-0.5003605538508737</v>
       </c>
       <c r="H23">
-        <v>-0.4430093568983937</v>
+        <v>-0.4911749261581324</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.004127638906949781</v>
+        <v>-1.17232513234463</v>
       </c>
       <c r="C24">
-        <v>0.004393735123002377</v>
+        <v>1.5754026423513</v>
       </c>
       <c r="D24">
-        <v>0.004294439637649052</v>
+        <v>0.4389703948041058</v>
       </c>
       <c r="E24">
-        <v>0.003050073511090188</v>
+        <v>0.818788923975914</v>
       </c>
       <c r="F24">
-        <v>0.002449486320266307</v>
+        <v>0.3324233262975231</v>
       </c>
       <c r="G24">
-        <v>-0.0006790271291835724</v>
+        <v>-0.1354849209381466</v>
       </c>
       <c r="H24">
-        <v>-0.0008030886504601004</v>
+        <v>-0.177054164547289</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.9222379072747494</v>
+        <v>-1.261526691540805</v>
       </c>
       <c r="C25">
-        <v>0.7032978041936813</v>
+        <v>1.241817110226113</v>
       </c>
       <c r="D25">
-        <v>1.209927722207983</v>
+        <v>0.567114230895314</v>
       </c>
       <c r="E25">
-        <v>0.409218908558601</v>
+        <v>0.730210229721907</v>
       </c>
       <c r="F25">
-        <v>0.5332706949681802</v>
+        <v>0.6876624152912154</v>
       </c>
       <c r="G25">
-        <v>-0.8771386163837865</v>
+        <v>-0.1915095851119543</v>
       </c>
       <c r="H25">
-        <v>-0.6322579418359077</v>
+        <v>-0.4066710115863231</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.567476745879993</v>
+        <v>-0.003159594067031249</v>
       </c>
       <c r="C26">
-        <v>0.6717239267177889</v>
+        <v>0.003671291129956387</v>
       </c>
       <c r="D26">
-        <v>0.3839710410864535</v>
+        <v>0.004067017720325372</v>
       </c>
       <c r="E26">
-        <v>0.4045484304021787</v>
+        <v>0.00255706514122529</v>
       </c>
       <c r="F26">
-        <v>0.2467270590781958</v>
+        <v>0.002562329999169131</v>
       </c>
       <c r="G26">
-        <v>-0.1251425976748638</v>
+        <v>-0.0003182740411921687</v>
       </c>
       <c r="H26">
-        <v>-0.1989813569398129</v>
+        <v>-0.0003425516810693038</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.5483864629456657</v>
+        <v>-1.215262094503626</v>
       </c>
       <c r="C27">
-        <v>0.7399529236917466</v>
+        <v>0.9983315165985219</v>
       </c>
       <c r="D27">
-        <v>0.5940191000172999</v>
+        <v>1.065358679677858</v>
       </c>
       <c r="E27">
-        <v>0.3192492710256895</v>
+        <v>0.3975281835934339</v>
       </c>
       <c r="F27">
-        <v>0.2129057967723172</v>
+        <v>0.8632454623294665</v>
       </c>
       <c r="G27">
-        <v>-0.2749210174892724</v>
+        <v>-0.3073469706885821</v>
       </c>
       <c r="H27">
-        <v>-0.3485208049858781</v>
+        <v>-0.2012964376497021</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.003065994269863221</v>
+        <v>-0.9766575185285697</v>
       </c>
       <c r="C28">
-        <v>0.004104006547284972</v>
+        <v>1.027721695642768</v>
       </c>
       <c r="D28">
-        <v>0.003377056433435127</v>
+        <v>0.8657465963985467</v>
       </c>
       <c r="E28">
-        <v>0.002812907200538876</v>
+        <v>0.4300970876577716</v>
       </c>
       <c r="F28">
-        <v>0.001731144373142382</v>
+        <v>0.4219378600959183</v>
       </c>
       <c r="G28">
-        <v>-0.0006785255018415288</v>
+        <v>-0.2365790010059291</v>
       </c>
       <c r="H28">
-        <v>-0.001057317193793327</v>
+        <v>-0.3261445133905754</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.6875724792921886</v>
+        <v>-0.9577893429633825</v>
       </c>
       <c r="C29">
-        <v>1.38228386685319</v>
+        <v>0.8793283300460979</v>
       </c>
       <c r="D29">
-        <v>0.7831906786969147</v>
+        <v>0.5800745912979066</v>
       </c>
       <c r="E29">
-        <v>0.1204666805301121</v>
+        <v>0.9535103774138162</v>
       </c>
       <c r="F29">
-        <v>0.3823392226578712</v>
+        <v>0.3940495016443498</v>
       </c>
       <c r="G29">
-        <v>-1.57176450071793</v>
+        <v>-0.03315272505432785</v>
       </c>
       <c r="H29">
-        <v>-0.4047954993783556</v>
+        <v>-0.5718433176598366</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.37620626258232</v>
+        <v>-1.438875598427573</v>
       </c>
       <c r="C30">
-        <v>0.4093179242295046</v>
+        <v>0.9460351627173684</v>
       </c>
       <c r="D30">
-        <v>0.4532212338807783</v>
+        <v>1.173633869630581</v>
       </c>
       <c r="E30">
-        <v>0.3630674828943349</v>
+        <v>0.9415787809558527</v>
       </c>
       <c r="F30">
-        <v>0.2137208841331443</v>
+        <v>0.7625479042368497</v>
       </c>
       <c r="G30">
-        <v>-0.2188150470441622</v>
+        <v>-0.2297529995605519</v>
       </c>
       <c r="H30">
-        <v>-0.2919598988578901</v>
+        <v>-0.5651769024779504</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.9920724471908345</v>
+        <v>-0.6620708500041875</v>
       </c>
       <c r="C31">
-        <v>1.495334682278045</v>
+        <v>0.4321336737254761</v>
       </c>
       <c r="D31">
-        <v>1.088608828735137</v>
+        <v>0.6355732405669294</v>
       </c>
       <c r="E31">
-        <v>0.1430923533776173</v>
+        <v>0.4048208564912088</v>
       </c>
       <c r="F31">
-        <v>0.2921680519775497</v>
+        <v>0.4195614344233856</v>
       </c>
       <c r="G31">
-        <v>-1.461993029136281</v>
+        <v>-0.1908906763258194</v>
       </c>
       <c r="H31">
-        <v>-0.5234680298894429</v>
+        <v>-0.09739822246751526</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-1.478103578378787</v>
+        <v>-0.7793221865083546</v>
       </c>
       <c r="C32">
-        <v>1.231636160400395</v>
+        <v>0.8543185869164056</v>
       </c>
       <c r="D32">
-        <v>1.063484556664943</v>
+        <v>0.430868070348998</v>
       </c>
       <c r="E32">
-        <v>0.8418165031657679</v>
+        <v>0.5883368799697666</v>
       </c>
       <c r="F32">
-        <v>0.4404811016571004</v>
+        <v>0.3784395176188376</v>
       </c>
       <c r="G32">
-        <v>-0.4492346508492156</v>
+        <v>-0.2375896528869346</v>
       </c>
       <c r="H32">
-        <v>-0.9636178906847288</v>
+        <v>-0.2102017713273354</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.003736892433940825</v>
+        <v>-1.204278748946943</v>
       </c>
       <c r="C33">
-        <v>0.004147683956882321</v>
+        <v>1.090127531529801</v>
       </c>
       <c r="D33">
-        <v>0.003861343140546022</v>
+        <v>1.319982401178863</v>
       </c>
       <c r="E33">
-        <v>0.002757986393367488</v>
+        <v>0.3196048150530922</v>
       </c>
       <c r="F33">
-        <v>0.001993201971415959</v>
+        <v>0.4531632303762555</v>
       </c>
       <c r="G33">
-        <v>-0.0002245927037433879</v>
+        <v>0.08757272697675095</v>
       </c>
       <c r="H33">
-        <v>-0.001947539888657083</v>
+        <v>-0.5695814929006046</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.003935539458562821</v>
+        <v>-0.04471771710781181</v>
       </c>
       <c r="C34">
-        <v>0.005009509025394614</v>
+        <v>0.04032148237892073</v>
       </c>
       <c r="D34">
-        <v>0.00333240349045695</v>
+        <v>0.04586823189698004</v>
       </c>
       <c r="E34">
-        <v>0.003348119385948742</v>
+        <v>0.02919315904808491</v>
       </c>
       <c r="F34">
-        <v>0.0017762255336395</v>
+        <v>0.01863914394256397</v>
       </c>
       <c r="G34">
-        <v>-0.0006208127370635082</v>
+        <v>-0.00933265642089204</v>
       </c>
       <c r="H34">
-        <v>-0.0007305396919051945</v>
+        <v>-0.02578960914195902</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.8135884343620811</v>
+        <v>-0.7908417062944083</v>
       </c>
       <c r="C35">
-        <v>1.020072790805859</v>
+        <v>0.4899234984773842</v>
       </c>
       <c r="D35">
-        <v>0.4414794925376273</v>
+        <v>0.7712503060723095</v>
       </c>
       <c r="E35">
-        <v>0.6568251124775667</v>
+        <v>0.3158979434547407</v>
       </c>
       <c r="F35">
-        <v>0.1522037092290957</v>
+        <v>0.6218557906173097</v>
       </c>
       <c r="G35">
-        <v>-0.1663304402157799</v>
+        <v>-0.280604775440909</v>
       </c>
       <c r="H35">
-        <v>-0.4970118620905598</v>
+        <v>-0.07026543115382385</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.4871731146292458</v>
+        <v>-0.2712372142981893</v>
       </c>
       <c r="C36">
-        <v>0.6833058491390545</v>
+        <v>0.2690668871379385</v>
       </c>
       <c r="D36">
-        <v>0.3774219112188918</v>
+        <v>0.2069474317392243</v>
       </c>
       <c r="E36">
-        <v>0.3605268525680199</v>
+        <v>0.1469814700512009</v>
       </c>
       <c r="F36">
-        <v>0.1364402918832794</v>
+        <v>0.1753691792896466</v>
       </c>
       <c r="G36">
-        <v>-0.1371892309522104</v>
+        <v>0.003858286416640685</v>
       </c>
       <c r="H36">
-        <v>-0.2071982347788549</v>
+        <v>-0.2062757509488775</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.004772164495772625</v>
+        <v>-0.8858514674219378</v>
       </c>
       <c r="C37">
-        <v>0.005295444834620428</v>
+        <v>0.8445510062947843</v>
       </c>
       <c r="D37">
-        <v>0.00360847880664825</v>
+        <v>0.8916124899373774</v>
       </c>
       <c r="E37">
-        <v>0.003287844982088692</v>
+        <v>0.6194815434899321</v>
       </c>
       <c r="F37">
-        <v>0.002381542432291267</v>
+        <v>0.382839793109695</v>
       </c>
       <c r="G37">
-        <v>-0.0005345251410525406</v>
+        <v>-0.04682900949075698</v>
       </c>
       <c r="H37">
-        <v>-0.001923439625876883</v>
+        <v>-0.5689485908703328</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.6577829612950754</v>
+        <v>-0.805937094378559</v>
       </c>
       <c r="C38">
-        <v>0.6974430983691414</v>
+        <v>0.6621109234206849</v>
       </c>
       <c r="D38">
-        <v>0.5788954702066559</v>
+        <v>0.8316938104957988</v>
       </c>
       <c r="E38">
-        <v>0.3827843526201912</v>
+        <v>0.358516290970368</v>
       </c>
       <c r="F38">
-        <v>0.4926588041248682</v>
+        <v>0.2516961300463661</v>
       </c>
       <c r="G38">
-        <v>-0.3792072869385865</v>
+        <v>-0.2295579083752001</v>
       </c>
       <c r="H38">
-        <v>-0.3420067873964539</v>
+        <v>-0.5443531033810154</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-1.247514798245607</v>
+        <v>-0.902714054794913</v>
       </c>
       <c r="C39">
-        <v>1.415785685263791</v>
+        <v>0.9013749764051844</v>
       </c>
       <c r="D39">
-        <v>1.040555742380533</v>
+        <v>0.6483327822130281</v>
       </c>
       <c r="E39">
-        <v>0.5697577725845023</v>
+        <v>0.4822845483871805</v>
       </c>
       <c r="F39">
-        <v>0.6267694497671588</v>
+        <v>0.3195520343806756</v>
       </c>
       <c r="G39">
-        <v>-1.493994775736377</v>
+        <v>-0.08284284224310248</v>
       </c>
       <c r="H39">
-        <v>-0.4655108396025869</v>
+        <v>-0.2030563828182223</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.510027935773922</v>
+        <v>-1.048482520125108</v>
       </c>
       <c r="C40">
-        <v>0.5231752380272101</v>
+        <v>1.354244966718937</v>
       </c>
       <c r="D40">
-        <v>0.5055789591191944</v>
+        <v>0.4395933479505948</v>
       </c>
       <c r="E40">
-        <v>0.401568435321544</v>
+        <v>0.6891698291778443</v>
       </c>
       <c r="F40">
-        <v>0.2127523864041704</v>
+        <v>0.5100883734187015</v>
       </c>
       <c r="G40">
-        <v>-0.1737141475582623</v>
+        <v>-0.1036217425015375</v>
       </c>
       <c r="H40">
-        <v>-0.204033266105965</v>
+        <v>-0.116839756473791</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.4479172747473374</v>
+        <v>-1.525833633718845</v>
       </c>
       <c r="C41">
-        <v>0.5464073600201447</v>
+        <v>1.274044523360201</v>
       </c>
       <c r="D41">
-        <v>0.4637469724007049</v>
+        <v>0.9233208375495614</v>
       </c>
       <c r="E41">
-        <v>0.2939091541770731</v>
+        <v>0.7508031182876205</v>
       </c>
       <c r="F41">
-        <v>0.2628788785355241</v>
+        <v>0.8545288907438764</v>
       </c>
       <c r="G41">
-        <v>-0.1389725825331796</v>
+        <v>-0.2752350980750909</v>
       </c>
       <c r="H41">
-        <v>-0.15203139464908</v>
+        <v>-0.4025138095306221</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.7549296056069164</v>
+        <v>-0.736526842846741</v>
       </c>
       <c r="C42">
-        <v>1.23778720857123</v>
+        <v>0.6757236540471192</v>
       </c>
       <c r="D42">
-        <v>0.8597346326092214</v>
+        <v>0.6875699141130646</v>
       </c>
       <c r="E42">
-        <v>0.1323948404799866</v>
+        <v>0.3576728336092768</v>
       </c>
       <c r="F42">
-        <v>0.1070149700888172</v>
+        <v>0.3547361885790296</v>
       </c>
       <c r="G42">
-        <v>-0.7310835561624471</v>
+        <v>-0.1724848594116533</v>
       </c>
       <c r="H42">
-        <v>-0.4914065350577081</v>
+        <v>-0.4409720754363486</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.742612222433549</v>
+        <v>-0.03483002630276879</v>
       </c>
       <c r="C43">
-        <v>1.136093465051439</v>
+        <v>0.02912242546651727</v>
       </c>
       <c r="D43">
-        <v>0.7657566678619242</v>
+        <v>0.04287827213696033</v>
       </c>
       <c r="E43">
-        <v>0.2438607188773089</v>
+        <v>0.02906670723511942</v>
       </c>
       <c r="F43">
-        <v>0.3821648759372667</v>
+        <v>0.02516180797347037</v>
       </c>
       <c r="G43">
-        <v>-0.7846829791093954</v>
+        <v>-0.01585530671187167</v>
       </c>
       <c r="H43">
-        <v>-0.5246878987558518</v>
+        <v>-0.002532429267855335</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.6863320042217566</v>
+        <v>-0.2589499339842947</v>
       </c>
       <c r="C44">
-        <v>1.191556334249125</v>
+        <v>0.2409084860879528</v>
       </c>
       <c r="D44">
-        <v>0.7972492344799273</v>
+        <v>0.2239730812670525</v>
       </c>
       <c r="E44">
-        <v>0.2902359752244152</v>
+        <v>0.220257244076157</v>
       </c>
       <c r="F44">
-        <v>0.3071701047504575</v>
+        <v>0.09607893837277273</v>
       </c>
       <c r="G44">
-        <v>-0.9711718840004396</v>
+        <v>-0.06222977778995642</v>
       </c>
       <c r="H44">
-        <v>-0.3689643633799012</v>
+        <v>-0.1696628702680161</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.5527502793466325</v>
+        <v>-0.9622708891991931</v>
       </c>
       <c r="C45">
-        <v>0.5667091352127842</v>
+        <v>1.01844160412205</v>
       </c>
       <c r="D45">
-        <v>0.532081458984146</v>
+        <v>0.9504358788469739</v>
       </c>
       <c r="E45">
-        <v>0.3307937071843575</v>
+        <v>0.3739435219326613</v>
       </c>
       <c r="F45">
-        <v>0.06344682456835184</v>
+        <v>0.2540223588763658</v>
       </c>
       <c r="G45">
-        <v>-0.09548630258955913</v>
+        <v>-0.3828378700260287</v>
       </c>
       <c r="H45">
-        <v>-0.3455705687912007</v>
+        <v>-0.4086918267611221</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.004069445674803129</v>
+        <v>-0.7559594515158644</v>
       </c>
       <c r="C46">
-        <v>0.003986070774415507</v>
+        <v>0.8184217590470556</v>
       </c>
       <c r="D46">
-        <v>0.004423078468615686</v>
+        <v>0.3818888984873371</v>
       </c>
       <c r="E46">
-        <v>0.003475557104355448</v>
+        <v>0.4310978495602342</v>
       </c>
       <c r="F46">
-        <v>0.001372388749662545</v>
+        <v>0.1930207729072295</v>
       </c>
       <c r="G46">
-        <v>-0.0002823031289628949</v>
+        <v>-0.1256681580787408</v>
       </c>
       <c r="H46">
-        <v>-0.001590247550621574</v>
+        <v>-0.3296434870214893</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.8048151332787259</v>
+        <v>-1.475292674000584</v>
       </c>
       <c r="C47">
-        <v>0.9060103623210749</v>
+        <v>1.544269452615801</v>
       </c>
       <c r="D47">
-        <v>0.5295434091327835</v>
+        <v>0.9188335475412364</v>
       </c>
       <c r="E47">
-        <v>0.449597828345891</v>
+        <v>0.943165697934511</v>
       </c>
       <c r="F47">
-        <v>0.3685205638299588</v>
+        <v>0.3674748423347196</v>
       </c>
       <c r="G47">
-        <v>-0.2691279770790047</v>
+        <v>-0.104096225899491</v>
       </c>
       <c r="H47">
-        <v>-0.1035246645120481</v>
+        <v>-0.4686371195883448</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-1.10358313923929</v>
+        <v>-0.7334591602100825</v>
       </c>
       <c r="C48">
-        <v>1.341596880970486</v>
+        <v>0.6381522014354595</v>
       </c>
       <c r="D48">
-        <v>1.038304416574154</v>
+        <v>0.5104349666597431</v>
       </c>
       <c r="E48">
-        <v>0.4637410712370848</v>
+        <v>0.5915584168781284</v>
       </c>
       <c r="F48">
-        <v>0.02385873712327633</v>
+        <v>0.2293061120208469</v>
       </c>
       <c r="G48">
-        <v>-0.865649724590557</v>
+        <v>-0.07136452547935929</v>
       </c>
       <c r="H48">
-        <v>-0.6134933398871267</v>
+        <v>-0.4523614339353218</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.9225180979406481</v>
+        <v>-1.064397636956498</v>
       </c>
       <c r="C49">
-        <v>1.922423645077879</v>
+        <v>0.8716798628789999</v>
       </c>
       <c r="D49">
-        <v>0.4460150574858112</v>
+        <v>1.019306901773578</v>
       </c>
       <c r="E49">
-        <v>0.4510425096173333</v>
+        <v>0.6056939955124077</v>
       </c>
       <c r="F49">
-        <v>0.3407479826830936</v>
+        <v>0.3535992053539044</v>
       </c>
       <c r="G49">
-        <v>-1.711492889738608</v>
+        <v>-0.3161653780773158</v>
       </c>
       <c r="H49">
-        <v>-0.2657876641785718</v>
+        <v>-0.6662788919369537</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.8099166032125826</v>
+        <v>-0.2666770919481904</v>
       </c>
       <c r="C50">
-        <v>1.446530397814114</v>
+        <v>0.2529462298744574</v>
       </c>
       <c r="D50">
-        <v>0.4683357639215235</v>
+        <v>0.2672167023979515</v>
       </c>
       <c r="E50">
-        <v>0.5702781956571925</v>
+        <v>0.1613722976240078</v>
       </c>
       <c r="F50">
-        <v>0.1354725027142492</v>
+        <v>0.1601331901750055</v>
       </c>
       <c r="G50">
-        <v>-1.030160400851954</v>
+        <v>-0.02288420760257747</v>
       </c>
       <c r="H50">
-        <v>-0.2020610438137863</v>
+        <v>-0.1360607213694862</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-1.023858154786586</v>
+        <v>-1.149914984883252</v>
       </c>
       <c r="C51">
-        <v>1.643110848741203</v>
+        <v>1.039891509612548</v>
       </c>
       <c r="D51">
-        <v>0.4676546449567539</v>
+        <v>0.9654527018846841</v>
       </c>
       <c r="E51">
-        <v>0.7992655051378795</v>
+        <v>0.7071024673966706</v>
       </c>
       <c r="F51">
-        <v>-0.04649327566682673</v>
+        <v>0.3896198737756102</v>
       </c>
       <c r="G51">
-        <v>-1.078392007557333</v>
+        <v>-0.105196830776578</v>
       </c>
       <c r="H51">
-        <v>-0.3723586679505807</v>
+        <v>-0.5495731988143219</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-1.052165247258197</v>
+        <v>-1.334037951577571</v>
       </c>
       <c r="C52">
-        <v>0.9680350449097</v>
+        <v>1.469194721138431</v>
       </c>
       <c r="D52">
-        <v>1.014323578122577</v>
+        <v>0.7550594812662281</v>
       </c>
       <c r="E52">
-        <v>0.572170628078701</v>
+        <v>0.6749645618176627</v>
       </c>
       <c r="F52">
-        <v>0.3017535364699301</v>
+        <v>0.4473400575318578</v>
       </c>
       <c r="G52">
-        <v>-0.3830247833895758</v>
+        <v>-0.3291324308139104</v>
       </c>
       <c r="H52">
-        <v>-0.6487113973072464</v>
+        <v>-0.2898588124603249</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.1917694579314925</v>
+        <v>-1.2074093359131</v>
       </c>
       <c r="C53">
-        <v>0.2291897194051025</v>
+        <v>1.157247327670951</v>
       </c>
       <c r="D53">
-        <v>0.1965927328278406</v>
+        <v>0.4581489783721678</v>
       </c>
       <c r="E53">
-        <v>0.1573003927503965</v>
+        <v>1.122511189300634</v>
       </c>
       <c r="F53">
-        <v>0.109664852504592</v>
+        <v>0.552628372017954</v>
       </c>
       <c r="G53">
-        <v>-0.0243923043076259</v>
+        <v>-0.1271857157438473</v>
       </c>
       <c r="H53">
-        <v>-0.1234862981191236</v>
+        <v>-0.4082138698753713</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.2483742069342217</v>
+        <v>-0.5821764322237739</v>
       </c>
       <c r="C54">
-        <v>0.2485040496212168</v>
+        <v>0.4811729861813218</v>
       </c>
       <c r="D54">
-        <v>0.2707279451798252</v>
+        <v>0.4979231668538535</v>
       </c>
       <c r="E54">
-        <v>0.1936500401561646</v>
+        <v>0.3643926095049965</v>
       </c>
       <c r="F54">
-        <v>0.0151258943261841</v>
+        <v>0.3808777249781114</v>
       </c>
       <c r="G54">
-        <v>-0.05064491713375883</v>
+        <v>-0.2169265968814239</v>
       </c>
       <c r="H54">
-        <v>-0.1255680772109423</v>
+        <v>-0.3940152528985004</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.5314669805621708</v>
+        <v>-0.5449504870388168</v>
       </c>
       <c r="C55">
-        <v>0.6433719019546646</v>
+        <v>0.3841971626955811</v>
       </c>
       <c r="D55">
-        <v>0.6640252449490603</v>
+        <v>0.5405583600789712</v>
       </c>
       <c r="E55">
-        <v>0.2582007170357777</v>
+        <v>0.4870777640316818</v>
       </c>
       <c r="F55">
-        <v>0.2477693006191886</v>
+        <v>0.1934548766920923</v>
       </c>
       <c r="G55">
-        <v>-0.2126696573671416</v>
+        <v>-0.1036462220327458</v>
       </c>
       <c r="H55">
-        <v>-0.3759067807229552</v>
+        <v>-0.2913861468772981</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-1.359196100153249</v>
+        <v>-0.005315081131313468</v>
       </c>
       <c r="C56">
-        <v>1.624532146453388</v>
+        <v>0.004040839864583525</v>
       </c>
       <c r="D56">
-        <v>1.310635094481254</v>
+        <v>0.005151600694228488</v>
       </c>
       <c r="E56">
-        <v>0.4513883599487231</v>
+        <v>0.003785464992353729</v>
       </c>
       <c r="F56">
-        <v>0.2124568544692545</v>
+        <v>0.003176007324879776</v>
       </c>
       <c r="G56">
-        <v>-1.123892565964649</v>
+        <v>-0.001030979353060948</v>
       </c>
       <c r="H56">
-        <v>-0.5358909713300594</v>
+        <v>-0.002116894828719411</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.4514500576962623</v>
+        <v>-1.073310551008078</v>
       </c>
       <c r="C57">
-        <v>0.4989790856819779</v>
+        <v>1.167256219119518</v>
       </c>
       <c r="D57">
-        <v>0.5017241735194338</v>
+        <v>0.9746607545592663</v>
       </c>
       <c r="E57">
-        <v>0.2623963249440026</v>
+        <v>0.5780807943711629</v>
       </c>
       <c r="F57">
-        <v>0.186490699029224</v>
+        <v>0.337401427907051</v>
       </c>
       <c r="G57">
-        <v>-0.2090531240648352</v>
+        <v>-0.215328014001642</v>
       </c>
       <c r="H57">
-        <v>-0.3760048479544991</v>
+        <v>-0.5512606030433165</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.03810472018218918</v>
+        <v>-0.004409717179254058</v>
       </c>
       <c r="C58">
-        <v>0.04883667690645819</v>
+        <v>0.004382943220702641</v>
       </c>
       <c r="D58">
-        <v>0.02535636636859237</v>
+        <v>0.004412538586432127</v>
       </c>
       <c r="E58">
-        <v>0.02810591588214175</v>
+        <v>0.003514038577712527</v>
       </c>
       <c r="F58">
-        <v>0.01967655142832683</v>
+        <v>0.002655613022231852</v>
       </c>
       <c r="G58">
-        <v>-0.00347646128852645</v>
+        <v>-0.0005790334776579309</v>
       </c>
       <c r="H58">
-        <v>-0.01947098651839832</v>
+        <v>-0.001452644403865823</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.4709386239361807</v>
+        <v>-0.6316710977187571</v>
       </c>
       <c r="C59">
-        <v>0.4647893212021559</v>
+        <v>0.6130962105298324</v>
       </c>
       <c r="D59">
-        <v>0.5011194642378736</v>
+        <v>0.4802539360077641</v>
       </c>
       <c r="E59">
-        <v>0.3336643838327166</v>
+        <v>0.4841766695183287</v>
       </c>
       <c r="F59">
-        <v>0.1822476100373585</v>
+        <v>0.219994634000367</v>
       </c>
       <c r="G59">
-        <v>-0.08011917630773793</v>
+        <v>0.003583702463707234</v>
       </c>
       <c r="H59">
-        <v>-0.2935062997827857</v>
+        <v>-0.2400251964367876</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-1.328177282859131</v>
+        <v>-0.6884689955259008</v>
       </c>
       <c r="C60">
-        <v>1.761261706566919</v>
+        <v>0.873892707216535</v>
       </c>
       <c r="D60">
-        <v>0.8597316294650345</v>
+        <v>0.3827129926175016</v>
       </c>
       <c r="E60">
-        <v>0.4725957267631366</v>
+        <v>0.5412309137881135</v>
       </c>
       <c r="F60">
-        <v>0.4637880188583849</v>
+        <v>0.2367213728472281</v>
       </c>
       <c r="G60">
-        <v>-1.337583952391734</v>
+        <v>-0.188870865992389</v>
       </c>
       <c r="H60">
-        <v>-0.385654795376305</v>
+        <v>-0.178118529569036</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.6141673936537815</v>
+        <v>-1.007515144832559</v>
       </c>
       <c r="C61">
-        <v>0.6981112168076985</v>
+        <v>0.9937149423378278</v>
       </c>
       <c r="D61">
-        <v>0.4327692020747995</v>
+        <v>1.068217044225481</v>
       </c>
       <c r="E61">
-        <v>0.3426031007328894</v>
+        <v>0.3170095206300489</v>
       </c>
       <c r="F61">
-        <v>0.1863841609530579</v>
+        <v>0.7364589055186795</v>
       </c>
       <c r="G61">
-        <v>-0.1934470525927629</v>
+        <v>-0.2232205654786247</v>
       </c>
       <c r="H61">
-        <v>-0.2829928092473995</v>
+        <v>-0.621112597233342</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.6354068387337516</v>
+        <v>-0.004487843008125881</v>
       </c>
       <c r="C62">
-        <v>1.013178935135465</v>
+        <v>0.004552568887782281</v>
       </c>
       <c r="D62">
-        <v>0.7152369802826932</v>
+        <v>0.004168439038002696</v>
       </c>
       <c r="E62">
-        <v>0.4738725423589641</v>
+        <v>0.002621117122564079</v>
       </c>
       <c r="F62">
-        <v>0.09643951789038584</v>
+        <v>0.003083434803455735</v>
       </c>
       <c r="G62">
-        <v>-0.8771298157127653</v>
+        <v>-0.001206555335611229</v>
       </c>
       <c r="H62">
-        <v>-0.2620616999869553</v>
+        <v>-0.002360852170315024</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-1.26897149759011</v>
+        <v>-1.428535037390962</v>
       </c>
       <c r="C63">
-        <v>1.42243546790227</v>
+        <v>1.253449526053194</v>
       </c>
       <c r="D63">
-        <v>0.9489285387540577</v>
+        <v>1.243097000846781</v>
       </c>
       <c r="E63">
-        <v>0.7740443491792244</v>
+        <v>0.4293321653906133</v>
       </c>
       <c r="F63">
-        <v>0.3118591730229556</v>
+        <v>0.3613109939606135</v>
       </c>
       <c r="G63">
-        <v>-1.516927034983299</v>
+        <v>-0.6015344268207898</v>
       </c>
       <c r="H63">
-        <v>-0.2458453136322932</v>
+        <v>-0.4030820882747396</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.6864186990408792</v>
+        <v>-0.005026116882939912</v>
       </c>
       <c r="C64">
-        <v>0.808123196148841</v>
+        <v>0.005016973531512843</v>
       </c>
       <c r="D64">
-        <v>0.6792826031131747</v>
+        <v>0.00428429083204363</v>
       </c>
       <c r="E64">
-        <v>0.357973446374674</v>
+        <v>0.003079150493215277</v>
       </c>
       <c r="F64">
-        <v>0.3118634692443978</v>
+        <v>0.002245392365810877</v>
       </c>
       <c r="G64">
-        <v>-0.4476688225208962</v>
+        <v>-0.002379308786482937</v>
       </c>
       <c r="H64">
-        <v>-0.3183989904938108</v>
+        <v>-0.002292611101879065</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.796027696638506</v>
+        <v>-0.5130865975480653</v>
       </c>
       <c r="C65">
-        <v>1.041139229249791</v>
+        <v>0.6122395732648245</v>
       </c>
       <c r="D65">
-        <v>0.7436847838216296</v>
+        <v>0.5502304690224235</v>
       </c>
       <c r="E65">
-        <v>0.5256384969079911</v>
+        <v>0.2631843282657501</v>
       </c>
       <c r="F65">
-        <v>0.4649672844746939</v>
+        <v>0.1953669879674068</v>
       </c>
       <c r="G65">
-        <v>-1.050001233549765</v>
+        <v>0.002330416226561746</v>
       </c>
       <c r="H65">
-        <v>-0.4006641499395716</v>
+        <v>-0.2139765937022124</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.8935095613065119</v>
+        <v>-0.5444914444996587</v>
       </c>
       <c r="C66">
-        <v>1.477917497578399</v>
+        <v>0.479855021983946</v>
       </c>
       <c r="D66">
-        <v>0.4477350498693399</v>
+        <v>0.5576226498419574</v>
       </c>
       <c r="E66">
-        <v>0.3406053670511696</v>
+        <v>0.5102492302328706</v>
       </c>
       <c r="F66">
-        <v>0.3379859001193002</v>
+        <v>0.2743270962242721</v>
       </c>
       <c r="G66">
-        <v>-0.4933540846472604</v>
+        <v>-0.03643202728656127</v>
       </c>
       <c r="H66">
-        <v>-0.2937348849085154</v>
+        <v>-0.4402339986744827</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.8513259392352068</v>
+        <v>-0.0049997427915441</v>
       </c>
       <c r="C67">
-        <v>1.229482330461657</v>
+        <v>0.004639957524862668</v>
       </c>
       <c r="D67">
-        <v>0.995777741494605</v>
+        <v>0.004683254908916501</v>
       </c>
       <c r="E67">
-        <v>0.07015618370108688</v>
+        <v>0.003487771266787836</v>
       </c>
       <c r="F67">
-        <v>0.8321836663336241</v>
+        <v>0.002281903234408866</v>
       </c>
       <c r="G67">
-        <v>-2.866222622164822</v>
+        <v>-0.002274738088863587</v>
       </c>
       <c r="H67">
-        <v>-0.2993502574204346</v>
+        <v>-0.001617186909561551</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.5976857878848953</v>
+        <v>-0.8783334909075526</v>
       </c>
       <c r="C68">
-        <v>0.5070341005863763</v>
+        <v>1.079256298422936</v>
       </c>
       <c r="D68">
-        <v>0.8015787023830523</v>
+        <v>0.7504167781122134</v>
       </c>
       <c r="E68">
-        <v>0.6709416705820215</v>
+        <v>0.6090830091681446</v>
       </c>
       <c r="F68">
-        <v>0.3283157626575843</v>
+        <v>0.09643868450888213</v>
       </c>
       <c r="G68">
-        <v>-1.269956449896905</v>
+        <v>-0.04253921564060072</v>
       </c>
       <c r="H68">
-        <v>-0.9500924103578025</v>
+        <v>-0.4089137299373066</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-1.045195326665165</v>
+        <v>-1.009062731863123</v>
       </c>
       <c r="C69">
-        <v>1.062312051120536</v>
+        <v>0.5860582484524862</v>
       </c>
       <c r="D69">
-        <v>0.8765093906825562</v>
+        <v>0.851998529682702</v>
       </c>
       <c r="E69">
-        <v>0.510227269669387</v>
+        <v>0.6865606963846471</v>
       </c>
       <c r="F69">
-        <v>0.6278198740644758</v>
+        <v>0.6657809468174307</v>
       </c>
       <c r="G69">
-        <v>-0.7761591118150311</v>
+        <v>-0.1151203936240579</v>
       </c>
       <c r="H69">
-        <v>-0.3184816637613148</v>
+        <v>-0.9616340692717256</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.8210388201070609</v>
+        <v>-0.8817188960897255</v>
       </c>
       <c r="C70">
-        <v>0.6435696953942244</v>
+        <v>0.572007378322814</v>
       </c>
       <c r="D70">
-        <v>0.6657431712714532</v>
+        <v>0.8347712084765093</v>
       </c>
       <c r="E70">
-        <v>0.5309095995213551</v>
+        <v>0.5134184341100136</v>
       </c>
       <c r="F70">
-        <v>0.3458352907994618</v>
+        <v>0.507481331056668</v>
       </c>
       <c r="G70">
-        <v>-0.08163323635802699</v>
+        <v>-0.2180304350708758</v>
       </c>
       <c r="H70">
-        <v>-0.3091823035405913</v>
+        <v>-0.9423155876803315</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.9887565238574512</v>
+        <v>-1.020765565304565</v>
       </c>
       <c r="C71">
-        <v>1.677503394378041</v>
+        <v>0.7610224096435163</v>
       </c>
       <c r="D71">
-        <v>0.2556870137685027</v>
+        <v>0.8531462013308213</v>
       </c>
       <c r="E71">
-        <v>0.7387965785863487</v>
+        <v>0.7449787715366482</v>
       </c>
       <c r="F71">
-        <v>0.2983626482999986</v>
+        <v>0.4129559714674441</v>
       </c>
       <c r="G71">
-        <v>-1.078831302009231</v>
+        <v>-0.229588165894529</v>
       </c>
       <c r="H71">
-        <v>-0.1960095076674033</v>
+        <v>-0.6185242026409475</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.4535019618876568</v>
+        <v>-0.2950984223657079</v>
       </c>
       <c r="C72">
-        <v>0.4748590387296963</v>
+        <v>0.274169484087723</v>
       </c>
       <c r="D72">
-        <v>0.4881182595673041</v>
+        <v>0.2715251585733396</v>
       </c>
       <c r="E72">
-        <v>0.3159872506965841</v>
+        <v>0.1743877496718486</v>
       </c>
       <c r="F72">
-        <v>0.2082654268100435</v>
+        <v>0.1698668943622959</v>
       </c>
       <c r="G72">
-        <v>-0.1212980624189502</v>
+        <v>-0.05949331490244018</v>
       </c>
       <c r="H72">
-        <v>-0.2859159898579967</v>
+        <v>-0.105864079244941</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.4891361430037631</v>
+        <v>-0.8377638401221129</v>
       </c>
       <c r="C73">
-        <v>0.5037079641115267</v>
+        <v>0.7105243210377205</v>
       </c>
       <c r="D73">
-        <v>0.6432957684490701</v>
+        <v>0.8796012302788886</v>
       </c>
       <c r="E73">
-        <v>0.2910847365103934</v>
+        <v>0.4655718911254465</v>
       </c>
       <c r="F73">
-        <v>0.209239827307933</v>
+        <v>0.3453707249774011</v>
       </c>
       <c r="G73">
-        <v>-0.2651091342291523</v>
+        <v>-0.3703496789294742</v>
       </c>
       <c r="H73">
-        <v>-0.4557362564075241</v>
+        <v>-0.5056039642304371</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.4104721133056455</v>
+        <v>-0.282125119639345</v>
       </c>
       <c r="C74">
-        <v>0.5471309094093707</v>
+        <v>0.3097350992205219</v>
       </c>
       <c r="D74">
-        <v>0.3281142263974539</v>
+        <v>0.2104752620131404</v>
       </c>
       <c r="E74">
-        <v>0.3406519476487946</v>
+        <v>0.1557067859846457</v>
       </c>
       <c r="F74">
-        <v>0.2010794580561392</v>
+        <v>0.1960601066760616</v>
       </c>
       <c r="G74">
-        <v>-0.13670420464489</v>
+        <v>-0.07285742484851802</v>
       </c>
       <c r="H74">
-        <v>-0.1758217210845344</v>
+        <v>-0.05785020699970798</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.6500367022899544</v>
+        <v>-0.6065323535923192</v>
       </c>
       <c r="C75">
-        <v>1.011889476025981</v>
+        <v>0.5435242082702193</v>
       </c>
       <c r="D75">
-        <v>0.7853501710414923</v>
+        <v>0.632631890341205</v>
       </c>
       <c r="E75">
-        <v>0.2195328951815071</v>
+        <v>0.3728381832880648</v>
       </c>
       <c r="F75">
-        <v>0.2409682459258862</v>
+        <v>0.2074513292820918</v>
       </c>
       <c r="G75">
-        <v>-0.6390760812708317</v>
+        <v>-0.2251219901012775</v>
       </c>
       <c r="H75">
-        <v>-0.4218932752029211</v>
+        <v>-0.3884291823656954</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.5303682166335435</v>
+        <v>-0.2245352091254315</v>
       </c>
       <c r="C76">
-        <v>0.5283349589814916</v>
+        <v>0.2690959710151243</v>
       </c>
       <c r="D76">
-        <v>0.4317754081867535</v>
+        <v>0.2118588876579048</v>
       </c>
       <c r="E76">
-        <v>0.3966115314363827</v>
+        <v>0.1716468809500604</v>
       </c>
       <c r="F76">
-        <v>0.2390383678953224</v>
+        <v>0.09190209922657337</v>
       </c>
       <c r="G76">
-        <v>-0.2306821603223247</v>
+        <v>-0.1178851053496924</v>
       </c>
       <c r="H76">
-        <v>-0.3348851782441568</v>
+        <v>-0.09097604473456995</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.626387414582473</v>
+        <v>-1.18954537954185</v>
       </c>
       <c r="C77">
-        <v>0.8480902916637749</v>
+        <v>0.8221601998201123</v>
       </c>
       <c r="D77">
-        <v>0.4916537904003728</v>
+        <v>0.9182890262918001</v>
       </c>
       <c r="E77">
-        <v>0.2529302301238326</v>
+        <v>0.7448892655646298</v>
       </c>
       <c r="F77">
-        <v>0.2527349249387392</v>
+        <v>0.9041036882744896</v>
       </c>
       <c r="G77">
-        <v>-0.2442987057724108</v>
+        <v>-0.2210905310131628</v>
       </c>
       <c r="H77">
-        <v>-0.3448324151553997</v>
+        <v>-0.263199407043785</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.8565105615259331</v>
+        <v>-0.9367687124015774</v>
       </c>
       <c r="C78">
-        <v>1.435521536723327</v>
+        <v>1.008909723889514</v>
       </c>
       <c r="D78">
-        <v>0.7983218740489658</v>
+        <v>0.7055711437945579</v>
       </c>
       <c r="E78">
-        <v>0.668139973269842</v>
+        <v>0.3990597884911942</v>
       </c>
       <c r="F78">
-        <v>0.4638919174935026</v>
+        <v>0.3369749959977557</v>
       </c>
       <c r="G78">
-        <v>-2.010094112111651</v>
+        <v>-0.6132700277952673</v>
       </c>
       <c r="H78">
-        <v>-0.2290364226318975</v>
+        <v>-0.3904397370860869</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.2370159077496758</v>
+        <v>-0.5991137023506671</v>
       </c>
       <c r="C79">
-        <v>0.2826216049697721</v>
+        <v>0.5395889554434273</v>
       </c>
       <c r="D79">
-        <v>0.172929028862472</v>
+        <v>0.472333135051944</v>
       </c>
       <c r="E79">
-        <v>0.2050432704730117</v>
+        <v>0.349637815023946</v>
       </c>
       <c r="F79">
-        <v>0.1222077873382011</v>
+        <v>0.2938712761800433</v>
       </c>
       <c r="G79">
-        <v>-0.02241208681652387</v>
+        <v>-0.1296646513542525</v>
       </c>
       <c r="H79">
-        <v>-0.1018579919622533</v>
+        <v>-0.4098349658795866</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.003944295613104895</v>
+        <v>-0.2136798108152979</v>
       </c>
       <c r="C80">
-        <v>0.004690871337653889</v>
+        <v>0.2140143700523599</v>
       </c>
       <c r="D80">
-        <v>0.003484449989583226</v>
+        <v>0.1974244752718897</v>
       </c>
       <c r="E80">
-        <v>0.003275948493940662</v>
+        <v>0.1657957953119406</v>
       </c>
       <c r="F80">
-        <v>0.001786007602217756</v>
+        <v>0.1566851868784027</v>
       </c>
       <c r="G80">
-        <v>-0.0005231073060093414</v>
+        <v>-0.03113473841775869</v>
       </c>
       <c r="H80">
-        <v>-0.001740444544245992</v>
+        <v>-0.173881762826504</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-1.070496157699542</v>
+        <v>-1.154027717021548</v>
       </c>
       <c r="C81">
-        <v>1.682444500247846</v>
+        <v>1.098380344564533</v>
       </c>
       <c r="D81">
-        <v>0.3979583802648334</v>
+        <v>1.083629218237972</v>
       </c>
       <c r="E81">
-        <v>0.8029358898814862</v>
+        <v>0.4928356299096726</v>
       </c>
       <c r="F81">
-        <v>0.2331703031156749</v>
+        <v>0.3066467629642523</v>
       </c>
       <c r="G81">
-        <v>-1.138602337772446</v>
+        <v>-0.2668376552688855</v>
       </c>
       <c r="H81">
-        <v>-0.2195005999537029</v>
+        <v>-0.7428937260684851</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.383767924999375</v>
+        <v>-0.5505588662123293</v>
       </c>
       <c r="C82">
-        <v>0.3627207744166514</v>
+        <v>0.4853992877395468</v>
       </c>
       <c r="D82">
-        <v>0.4087144450828696</v>
+        <v>0.5689256529670418</v>
       </c>
       <c r="E82">
-        <v>0.4398080810589188</v>
+        <v>0.2293738185562788</v>
       </c>
       <c r="F82">
-        <v>0.1994222254770222</v>
+        <v>0.397008075007122</v>
       </c>
       <c r="G82">
-        <v>-0.2093557633723045</v>
+        <v>-0.1303683090646124</v>
       </c>
       <c r="H82">
-        <v>-0.1758298358368761</v>
+        <v>-0.2507970991409438</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.2484220927322839</v>
+        <v>-0.8567514958591068</v>
       </c>
       <c r="C83">
-        <v>0.3088208500244125</v>
+        <v>0.7004301216235668</v>
       </c>
       <c r="D83">
-        <v>0.1626755320435168</v>
+        <v>0.8630276807439401</v>
       </c>
       <c r="E83">
-        <v>0.2192625220977505</v>
+        <v>0.4992273797848282</v>
       </c>
       <c r="F83">
-        <v>0.06080126630974611</v>
+        <v>0.1675601507567899</v>
       </c>
       <c r="G83">
-        <v>-0.07091563328347347</v>
+        <v>-0.04195836662113706</v>
       </c>
       <c r="H83">
-        <v>-0.1120450068758652</v>
+        <v>-0.3821608423769243</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.8140975106507281</v>
+        <v>-0.6790216211511365</v>
       </c>
       <c r="C84">
-        <v>1.134997958315231</v>
+        <v>0.5601635234833797</v>
       </c>
       <c r="D84">
-        <v>0.8348264985423667</v>
+        <v>0.5762246525705677</v>
       </c>
       <c r="E84">
-        <v>0.4265126950011506</v>
+        <v>0.6034430334964602</v>
       </c>
       <c r="F84">
-        <v>0.2502058849730966</v>
+        <v>0.2639911242763834</v>
       </c>
       <c r="G84">
-        <v>-0.8250211585944327</v>
+        <v>-0.1031359676704657</v>
       </c>
       <c r="H84">
-        <v>-0.5824137617766273</v>
+        <v>-0.2033333691477426</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.6722316157276418</v>
+        <v>-0.7121476255723114</v>
       </c>
       <c r="C85">
-        <v>0.7813333377938833</v>
+        <v>0.7977311397153181</v>
       </c>
       <c r="D85">
-        <v>0.3574228671232752</v>
+        <v>0.5518676458195644</v>
       </c>
       <c r="E85">
-        <v>0.5764172999900763</v>
+        <v>0.3843056701753599</v>
       </c>
       <c r="F85">
-        <v>0.3363328121986279</v>
+        <v>0.4058364639262528</v>
       </c>
       <c r="G85">
-        <v>-0.3541984945030902</v>
+        <v>-0.1356587268857664</v>
       </c>
       <c r="H85">
-        <v>-0.2614873252318853</v>
+        <v>-0.247965035734256</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.004569584224548571</v>
+        <v>-1.353259629303033</v>
       </c>
       <c r="C86">
-        <v>0.004821249612190024</v>
+        <v>1.15530488818264</v>
       </c>
       <c r="D86">
-        <v>0.003548208233963866</v>
+        <v>1.177432336553436</v>
       </c>
       <c r="E86">
-        <v>0.004056449778827876</v>
+        <v>0.4647409040904014</v>
       </c>
       <c r="F86">
-        <v>0.001581489698694925</v>
+        <v>0.8518533562614038</v>
       </c>
       <c r="G86">
-        <v>-0.0005335494451373104</v>
+        <v>-0.2764545803881913</v>
       </c>
       <c r="H86">
-        <v>-0.001979164145097925</v>
+        <v>-0.4240607544503782</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.8475557592505829</v>
+        <v>-0.2769165027111509</v>
       </c>
       <c r="C87">
-        <v>1.129995230324163</v>
+        <v>0.2082777718614006</v>
       </c>
       <c r="D87">
-        <v>0.1961952613695038</v>
+        <v>0.2858737449780282</v>
       </c>
       <c r="E87">
-        <v>0.7229510238943889</v>
+        <v>0.1992164214027048</v>
       </c>
       <c r="F87">
-        <v>0.3216417735466401</v>
+        <v>0.1729568624299762</v>
       </c>
       <c r="G87">
-        <v>-0.2845625684195807</v>
+        <v>-0.08317934444718354</v>
       </c>
       <c r="H87">
-        <v>-0.5106892375244638</v>
+        <v>-0.0584747826090072</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-1.176141180998891</v>
+        <v>-1.026393542740344</v>
       </c>
       <c r="C88">
-        <v>1.242572991220437</v>
+        <v>0.9870965002915941</v>
       </c>
       <c r="D88">
-        <v>1.158488619739809</v>
+        <v>0.7155747967123074</v>
       </c>
       <c r="E88">
-        <v>0.2933795726660221</v>
+        <v>0.6337157076382941</v>
       </c>
       <c r="F88">
-        <v>0.3599879186575494</v>
+        <v>0.4168292646478756</v>
       </c>
       <c r="G88">
-        <v>-0.9727032920292802</v>
+        <v>-0.3963671551928906</v>
       </c>
       <c r="H88">
-        <v>-0.8788727880578333</v>
+        <v>-0.5737418873259729</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.9366776375593525</v>
+        <v>-0.004837943642874036</v>
       </c>
       <c r="C89">
-        <v>1.180320243581805</v>
+        <v>0.005129674251798818</v>
       </c>
       <c r="D89">
-        <v>0.9350683028789332</v>
+        <v>0.004206119784688067</v>
       </c>
       <c r="E89">
-        <v>0.5538282177790625</v>
+        <v>0.002981603005757537</v>
       </c>
       <c r="F89">
-        <v>0.2115077283766378</v>
+        <v>0.002852315412047644</v>
       </c>
       <c r="G89">
-        <v>-0.5426598997189581</v>
+        <v>-0.0003977964748499124</v>
       </c>
       <c r="H89">
-        <v>-0.5059669515219112</v>
+        <v>-0.002285874586159877</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-1.16820085765854</v>
+        <v>-0.004294670335993482</v>
       </c>
       <c r="C90">
-        <v>1.731666273810022</v>
+        <v>0.004238764991698272</v>
       </c>
       <c r="D90">
-        <v>0.6484568583817583</v>
+        <v>0.003571893094568848</v>
       </c>
       <c r="E90">
-        <v>0.700972738082407</v>
+        <v>0.004141959934232666</v>
       </c>
       <c r="F90">
-        <v>0.1090920921852849</v>
+        <v>0.002890625248911133</v>
       </c>
       <c r="G90">
-        <v>-0.6300830780875415</v>
+        <v>-0.001426386721313611</v>
       </c>
       <c r="H90">
-        <v>-0.278331390393165</v>
+        <v>-0.0008394131918618964</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.5629686969798332</v>
+        <v>-0.6262403057483584</v>
       </c>
       <c r="C91">
-        <v>0.7878325685991625</v>
+        <v>0.6868971002013728</v>
       </c>
       <c r="D91">
-        <v>0.4964640883479772</v>
+        <v>0.6132309136007698</v>
       </c>
       <c r="E91">
-        <v>0.1280548250311153</v>
+        <v>0.3437645418332361</v>
       </c>
       <c r="F91">
-        <v>0.2107857809156684</v>
+        <v>0.3953088599410053</v>
       </c>
       <c r="G91">
-        <v>-0.2614569102879361</v>
+        <v>-0.05127404965195965</v>
       </c>
       <c r="H91">
-        <v>-0.5060225114389264</v>
+        <v>-0.3618255189672994</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.9774791315875554</v>
+        <v>-0.3009465399811831</v>
       </c>
       <c r="C92">
-        <v>1.17938999292688</v>
+        <v>0.262623038546991</v>
       </c>
       <c r="D92">
-        <v>0.6732293416211212</v>
+        <v>0.2903145717340959</v>
       </c>
       <c r="E92">
-        <v>0.7487818304837751</v>
+        <v>0.1718135100347565</v>
       </c>
       <c r="F92">
-        <v>0.6849359348429279</v>
+        <v>0.1591709810735977</v>
       </c>
       <c r="G92">
-        <v>-1.406217035623703</v>
+        <v>-0.09536880308334893</v>
       </c>
       <c r="H92">
-        <v>-0.7641956142414988</v>
+        <v>-0.09106235162578634</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.7638591247564959</v>
+        <v>-1.428401795858552</v>
       </c>
       <c r="C93">
-        <v>0.7929815524545466</v>
+        <v>0.7004954028409847</v>
       </c>
       <c r="D93">
-        <v>0.813295565824624</v>
+        <v>0.9971359301311876</v>
       </c>
       <c r="E93">
-        <v>0.6819717860196758</v>
+        <v>0.8027174087046628</v>
       </c>
       <c r="F93">
-        <v>0.3324283854531351</v>
+        <v>1.122653327025914</v>
       </c>
       <c r="G93">
-        <v>-0.6958475885210472</v>
+        <v>-0.5805362957503812</v>
       </c>
       <c r="H93">
-        <v>-0.6339639074198553</v>
+        <v>-0.3762716641905848</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.003913467331661419</v>
+        <v>-0.004605114894728984</v>
       </c>
       <c r="C94">
-        <v>0.004049702571017393</v>
+        <v>0.00476084041453543</v>
       </c>
       <c r="D94">
-        <v>0.004265049279387087</v>
+        <v>0.004436568115156287</v>
       </c>
       <c r="E94">
-        <v>0.003015852598140288</v>
+        <v>0.00252719114590817</v>
       </c>
       <c r="F94">
-        <v>0.001963298586923475</v>
+        <v>0.002407606385277807</v>
       </c>
       <c r="G94">
-        <v>-0.0003499015242524348</v>
+        <v>-0.001312496468411422</v>
       </c>
       <c r="H94">
-        <v>-0.001591390633418535</v>
+        <v>-0.00261823355480305</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.1920278199730013</v>
+        <v>-0.635733383052945</v>
       </c>
       <c r="C95">
-        <v>0.2291045864335029</v>
+        <v>0.6670459175444935</v>
       </c>
       <c r="D95">
-        <v>0.1514643530877104</v>
+        <v>0.5500262016807075</v>
       </c>
       <c r="E95">
-        <v>0.2354941230973428</v>
+        <v>0.4546420002532159</v>
       </c>
       <c r="F95">
-        <v>0.08275583586462351</v>
+        <v>0.3029493836513726</v>
       </c>
       <c r="G95">
-        <v>-0.05003316229290003</v>
+        <v>-0.02750660500734708</v>
       </c>
       <c r="H95">
-        <v>-0.03644159943319457</v>
+        <v>-0.1907644052448763</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.8099123292043537</v>
+        <v>-0.3023428467662609</v>
       </c>
       <c r="C96">
-        <v>0.7506250101833741</v>
+        <v>0.2645193235266572</v>
       </c>
       <c r="D96">
-        <v>0.6006139084319333</v>
+        <v>0.2712272652944435</v>
       </c>
       <c r="E96">
-        <v>0.3919316584615645</v>
+        <v>0.2072805803696004</v>
       </c>
       <c r="F96">
-        <v>0.419840833444394</v>
+        <v>0.1205234479137792</v>
       </c>
       <c r="G96">
-        <v>-0.1244574860060212</v>
+        <v>-0.1120069992443052</v>
       </c>
       <c r="H96">
-        <v>-0.421986457227629</v>
+        <v>-0.0823500316045353</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.003960740257907211</v>
+        <v>-1.749968205318249</v>
       </c>
       <c r="C97">
-        <v>0.004204803832241712</v>
+        <v>1.211897893451164</v>
       </c>
       <c r="D97">
-        <v>0.004165839074324816</v>
+        <v>1.2783647454027</v>
       </c>
       <c r="E97">
-        <v>0.003090900255072456</v>
+        <v>0.6280311746415913</v>
       </c>
       <c r="F97">
-        <v>0.00249618971341218</v>
+        <v>1.02146795647005</v>
       </c>
       <c r="G97">
-        <v>-0.0007081623450474175</v>
+        <v>-0.5766759917713252</v>
       </c>
       <c r="H97">
-        <v>-0.0009631509989691678</v>
+        <v>-0.5603460152727551</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.4482556451175772</v>
+        <v>-0.6616313694860343</v>
       </c>
       <c r="C98">
-        <v>0.6538623969738618</v>
+        <v>0.3958386720867303</v>
       </c>
       <c r="D98">
-        <v>0.483229523020585</v>
+        <v>0.8126222448064903</v>
       </c>
       <c r="E98">
-        <v>0.3976430317330077</v>
+        <v>0.4883030788389028</v>
       </c>
       <c r="F98">
-        <v>0.241324235942289</v>
+        <v>0.4385464402441808</v>
       </c>
       <c r="G98">
-        <v>-0.4697214996080109</v>
+        <v>-0.1768920946654269</v>
       </c>
       <c r="H98">
-        <v>-0.3227916656239372</v>
+        <v>-0.5600928733358536</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.9667543362555049</v>
+        <v>-0.004311592104704402</v>
       </c>
       <c r="C99">
-        <v>1.127619015839481</v>
+        <v>0.004103309669984329</v>
       </c>
       <c r="D99">
-        <v>0.9831453533016222</v>
+        <v>0.005006551444999111</v>
       </c>
       <c r="E99">
-        <v>0.5498429045249421</v>
+        <v>0.002892605035805302</v>
       </c>
       <c r="F99">
-        <v>0.1242648639855494</v>
+        <v>0.002733287977601443</v>
       </c>
       <c r="G99">
-        <v>-0.6408848547143585</v>
+        <v>-0.0005186154958298725</v>
       </c>
       <c r="H99">
-        <v>-0.6180178770696863</v>
+        <v>-0.00108004182541032</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.8748990904748686</v>
+        <v>-0.5540251169959037</v>
       </c>
       <c r="C100">
-        <v>1.552222773912151</v>
+        <v>0.4451183394924325</v>
       </c>
       <c r="D100">
-        <v>0.7411674848599217</v>
+        <v>0.6271723543226658</v>
       </c>
       <c r="E100">
-        <v>0.4457090718107275</v>
+        <v>0.3890915561181838</v>
       </c>
       <c r="F100">
-        <v>0.01701147489356351</v>
+        <v>0.2861041015546574</v>
       </c>
       <c r="G100">
-        <v>-1.404850580482289</v>
+        <v>-0.1518975496139664</v>
       </c>
       <c r="H100">
-        <v>-0.4098635082464056</v>
+        <v>-0.3044174822068297</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-1.223984452111433</v>
+        <v>-1.329360711680999</v>
       </c>
       <c r="C101">
-        <v>1.132140741600226</v>
+        <v>1.001861503736641</v>
       </c>
       <c r="D101">
-        <v>1.089898980380477</v>
+        <v>0.9022095220995071</v>
       </c>
       <c r="E101">
-        <v>0.7686402229713923</v>
+        <v>0.7220177084727897</v>
       </c>
       <c r="F101">
-        <v>0.748011683624672</v>
+        <v>0.7118121694002172</v>
       </c>
       <c r="G101">
-        <v>-1.425016205375035</v>
+        <v>-0.4549862386251128</v>
       </c>
       <c r="H101">
-        <v>-0.4585999604259142</v>
+        <v>-0.5145792594610223</v>
       </c>
     </row>
   </sheetData>
